--- a/Munkafüzet2.xlsx
+++ b/Munkafüzet2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF8640BC-B3DB-4FC8-88C7-1D617FCF2EEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79E75F5-39B4-45F8-A8B7-1C5A25289734}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{30224800-8D8A-47AC-9D50-9F8808337ECD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="97">
   <si>
     <t>GYŐRR1</t>
   </si>
@@ -295,6 +295,27 @@
   </si>
   <si>
     <t>2001:2004::1:1/64</t>
+  </si>
+  <si>
+    <t>Külső</t>
+  </si>
+  <si>
+    <t>ISP</t>
+  </si>
+  <si>
+    <t>PC4</t>
+  </si>
+  <si>
+    <t>10.10.10.2/30</t>
+  </si>
+  <si>
+    <t>192.168.1.100/24</t>
+  </si>
+  <si>
+    <t>192.168.1.9/24</t>
+  </si>
+  <si>
+    <t>192.168.1.100</t>
   </si>
 </sst>
 </file>
@@ -311,15 +332,111 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7C80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0066FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3399FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -618,40 +735,343 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.1498764000366222"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.1498764000366222"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.1498764000366222"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.1498764000366222"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.1498764000366222"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.1498458815271462"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.1498458815271462"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14978484450819421"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14978484450819421"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14978484450819421"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14978484450819421"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14981536301767021"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14981536301767021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14981536301767021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.1498764000366222"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.1498764000366222"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.1498764000366222"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,65 +1079,396 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -726,6 +1477,18 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99FF"/>
+      <color rgb="FF3399FF"/>
+      <color rgb="FF66CCFF"/>
+      <color rgb="FF0066FF"/>
+      <color rgb="FFFF7C80"/>
+      <color rgb="FFFFCCCC"/>
+      <color rgb="FFFF9999"/>
+      <color rgb="FFFF5050"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1034,10 +1797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73841842-5FE2-4B5E-844E-F0C028F3BC62}">
-  <dimension ref="A3:F50"/>
+  <dimension ref="A3:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:F50"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1050,617 +1813,793 @@
     <col min="6" max="6" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
+    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="134"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="124" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="134"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="134"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="24" t="s">
+      <c r="F5" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="134"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="135"/>
+      <c r="L6" s="135"/>
+      <c r="M6" s="135"/>
+      <c r="N6" s="134"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="134"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="134"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="134"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="134"/>
+      <c r="K8" s="134"/>
+      <c r="L8" s="134"/>
+      <c r="M8" s="134"/>
+      <c r="N8" s="134"/>
+    </row>
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="134"/>
+      <c r="K9" s="134"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="134"/>
+      <c r="N9" s="134"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="134"/>
+      <c r="K10" s="134"/>
+      <c r="L10" s="134"/>
+      <c r="M10" s="134"/>
+      <c r="N10" s="134"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="134"/>
+      <c r="K11" s="134"/>
+      <c r="L11" s="134"/>
+      <c r="M11" s="134"/>
+      <c r="N11" s="134"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="134"/>
+      <c r="K12" s="134"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="136"/>
+      <c r="N12" s="134"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="11"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="134"/>
+      <c r="K13" s="134"/>
+      <c r="L13" s="134"/>
+      <c r="M13" s="136"/>
+      <c r="N13" s="134"/>
+    </row>
+    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="11"/>
+      <c r="B14" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="134"/>
+      <c r="K14" s="134"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="134"/>
+      <c r="N14" s="134"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="11"/>
+      <c r="B15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="134"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="134"/>
+      <c r="N15" s="134"/>
+    </row>
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="11"/>
+      <c r="B16" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="134"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+    </row>
+    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="12"/>
+      <c r="B17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="134"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="134"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="134"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="134"/>
+      <c r="K18" s="134"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="134"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="22"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="134"/>
+      <c r="J19" s="134"/>
+      <c r="K19" s="134"/>
+      <c r="L19" s="134"/>
+      <c r="M19" s="134"/>
+      <c r="N19" s="134"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="22"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="134"/>
+      <c r="I20" s="134"/>
+      <c r="J20" s="134"/>
+      <c r="K20" s="134"/>
+      <c r="L20" s="134"/>
+      <c r="M20" s="134"/>
+      <c r="N20" s="134"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="22"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="27" t="s">
+      <c r="D21" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="134"/>
+      <c r="I21" s="134"/>
+      <c r="J21" s="134"/>
+      <c r="K21" s="134"/>
+      <c r="L21" s="134"/>
+      <c r="M21" s="134"/>
+      <c r="N21" s="134"/>
+    </row>
+    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="23"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="134"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="134"/>
+      <c r="K22" s="134"/>
+      <c r="L22" s="134"/>
+      <c r="M22" s="134"/>
+      <c r="N22" s="134"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H23" s="134"/>
+      <c r="I23" s="134"/>
+      <c r="J23" s="134"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="134"/>
+      <c r="M23" s="134"/>
+      <c r="N23" s="134"/>
+    </row>
+    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="124" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="124" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="124" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="133"/>
+      <c r="I31" s="125"/>
+      <c r="J31" s="126"/>
+      <c r="K31" s="127"/>
+      <c r="L31" s="128"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="20"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="55" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="20"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D34" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="10"/>
-      <c r="B11" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="23" t="s">
+      <c r="E34" s="57"/>
+      <c r="F34" s="58" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="20"/>
+      <c r="B35" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="K35" s="129"/>
+      <c r="L35" s="130"/>
+      <c r="M35" s="131"/>
+      <c r="N35" s="132"/>
+    </row>
+    <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="20"/>
+      <c r="B36" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="20"/>
+      <c r="B37" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" s="68" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="108" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="109" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="109" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" s="110" t="s">
+        <v>40</v>
+      </c>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="97"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="111" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="112" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" s="112" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" s="113" t="s">
+        <v>40</v>
+      </c>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="97"/>
+      <c r="B40" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="105" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="106" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="106" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="107" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="97"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="114" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="115" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" s="115" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="116" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="97"/>
+      <c r="B42" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="117" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="118" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" s="118" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="119" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="98"/>
+      <c r="B43" s="104" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" s="121" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" s="121" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="122" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="24" t="s">
+      <c r="D44" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" s="88" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="91"/>
+      <c r="B45" s="89"/>
+      <c r="C45" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="10"/>
-      <c r="B18" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="23" t="s">
+      <c r="D45" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" s="93" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" s="95" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="92"/>
+      <c r="B46" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="10"/>
-      <c r="B19" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="10"/>
-      <c r="B20" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="11"/>
-      <c r="B21" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="10"/>
-      <c r="B35" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="10"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="10"/>
-      <c r="B37" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="10"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="11"/>
-      <c r="B39" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F39" s="25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E40" t="s">
-        <v>75</v>
-      </c>
-      <c r="F40" s="25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="10"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F41" s="25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="10"/>
-      <c r="B42" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F42" s="25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="10"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F43" s="25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="10"/>
-      <c r="B44" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="11"/>
-      <c r="B45" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="10"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="10"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="10"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="11"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>40</v>
+      <c r="D46" s="83" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46" s="84" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B46:B50"/>
-    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="A5:A17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="A18:A22"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B38:B39"/>
     <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="A5:A21"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>